--- a/bots/crawl_ch/output/electronics_2022-07-11.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-11.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:10</t>
+          <t>2022-07-11 20:58:40</t>
         </is>
       </c>
     </row>
